--- a/MultiAppFramework/src/main/java/com/DataTables/MainTables/TestScenarios.xlsx
+++ b/MultiAppFramework/src/main/java/com/DataTables/MainTables/TestScenarios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Test Case</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>TC01_AmazonLogin</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,6 +483,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,6 +541,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
